--- a/05 Sent to client/Final report_AlexBorschke.xlsx
+++ b/05 Sent to client/Final report_AlexBorschke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexbor/Desktop/Data Analytics/Immersion/Submissions/4. Python/Instacart Basket Analysis_AB/05 Sent to client/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexbor/Desktop/Data Analytics/Immersion/Submissions/Instacart Basket Analysis/05 Sent to client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B017832-D324-7A49-8D61-54D0CFBDC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089F63A-239E-9C4A-A4FC-03BA8035DD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="268">
   <si>
     <t>Contents:</t>
   </si>
@@ -1765,6 +1765,36 @@
   <si>
     <t>I did not do anything to them because there are too many values. But I created a subset without the missing values which I just saved.</t>
   </si>
+  <si>
+    <t>Brand loyalty by unique user_id</t>
+  </si>
+  <si>
+    <t>In the original orders chart, regular is the highest, then loyal at ~60% of regular, then new at ~30% of regular. However, in the new .nunique() chart, the numbers are Loyal customer: 17017 New customer: 68750 Regular customer: 76864. The greatest segment is still the regular users, but the number of new customers is almost equivalent now, compared to before when it was 1/3 the value. This could imply to the company that they have a largely untapped new customer segment and should prioritize converting them to regular customers by trying to understand what the average user's habits are.</t>
+  </si>
+  <si>
+    <t>The analysis of brand loyalty by unique user_id is included into this report since it produced different results from the analysis of brand loyalty by number of customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food preferences by unique user:id </t>
+  </si>
+  <si>
+    <t>In comparison with the analysis of food preferences  by number of customers, the analysis of food preferences by unique user_ids showed that the proportions of unique customers who are non-vegan and vegans  are almost equal.</t>
+  </si>
+  <si>
+    <t>User activity by unique user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are some differences with the analysis of user activity in absolute numbers of customers. The greatest segment is still the frequent users, but the number of regular customers is more than a half of frequent users now, compared to before when it was 1/3 the value. This could imply to the company should prioritize converting regular customers to frequent customers by trying to understand what the average user's habits are. Moreover, non-frequent customers constitute 1/2 of frequent customers (in the analysis with absolute numbers they constituted only 1/6), which means that the company has a large segment of non-frequent customers that should be paid attention to and converted first to regular customers by looking at the average user habits. </t>
+  </si>
+  <si>
+    <t>Same recommendations as in the analysis of absolute numbers of customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the original orders chart, regular is the highest, then loyal at ~60% of regular, then new at ~30% of regular. However, in the new .nunique() chart, the numbers are Loyal customer: 17017 New customer: 68750 Regular customer: 76864. The greatest segment is still the regular users, but the number of new customers is almost equivalent now, compared to before when it was 1/3 the value. </t>
+  </si>
+  <si>
+    <t>RECOMMENDATIONS:This could imply to the company that they have a largely untapped new customer segment and should prioritize converting them to regular customers by trying to understand what the average user's habits are.</t>
+  </si>
 </sst>
 </file>
 
@@ -1998,7 +2028,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2026,6 +2056,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2836,7 +2872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3211,6 +3247,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18265,8 +18310,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1292943</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>88948</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18785,16 +18830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>128841</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>147247</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3049841</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>185347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>810408</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>149456</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3350408</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>136756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18817,8 +18862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14614203" y="39756522"/>
-          <a:ext cx="7454900" cy="7277100"/>
+          <a:off x="29923041" y="44025747"/>
+          <a:ext cx="7488767" cy="7393609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19144,7 +19189,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>4741863</xdr:colOff>
+      <xdr:colOff>2455863</xdr:colOff>
       <xdr:row>536</xdr:row>
       <xdr:rowOff>43997</xdr:rowOff>
     </xdr:to>
@@ -19231,8 +19276,8 @@
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>252506</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>3376706</xdr:colOff>
       <xdr:row>652</xdr:row>
       <xdr:rowOff>118529</xdr:rowOff>
     </xdr:to>
@@ -19347,6 +19392,138 @@
         <a:xfrm>
           <a:off x="907572" y="147701150"/>
           <a:ext cx="21214056" cy="14303225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B61CE3-C5D7-A519-0150-8F911D76D8EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15570200" y="44627800"/>
+          <a:ext cx="7734300" cy="6718300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>128563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7061201</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>159712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E0130E-4689-6B1C-1637-BB55CCDD9D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26763134" y="102101096"/>
+          <a:ext cx="7035800" cy="5534483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6131A1AC-2144-F87A-A7A4-3A26486B037A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47421800" y="44246800"/>
+          <a:ext cx="7708900" cy="7213600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19933,7 +20110,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>285007</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>962345</xdr:rowOff>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19977,7 +20154,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>1214563</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>8448</xdr:rowOff>
+      <xdr:rowOff>8447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20240,8 +20417,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>421565</xdr:colOff>
-      <xdr:row>399</xdr:row>
-      <xdr:rowOff>150995</xdr:rowOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>140410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20284,8 +20461,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1127253</xdr:colOff>
-      <xdr:row>399</xdr:row>
-      <xdr:rowOff>102684</xdr:rowOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>92099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20461,7 +20638,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>1457503</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>1233566</xdr:rowOff>
+      <xdr:rowOff>377055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20505,7 +20682,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>851953</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20593,7 +20770,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>3253093</xdr:colOff>
       <xdr:row>274</xdr:row>
-      <xdr:rowOff>53680</xdr:rowOff>
+      <xdr:rowOff>53681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20637,7 +20814,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>2319464</xdr:colOff>
       <xdr:row>448</xdr:row>
-      <xdr:rowOff>79070</xdr:rowOff>
+      <xdr:rowOff>79071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20681,7 +20858,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>2957017</xdr:colOff>
       <xdr:row>446</xdr:row>
-      <xdr:rowOff>123088</xdr:rowOff>
+      <xdr:rowOff>123089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20810,8 +20987,8 @@
       <xdr:rowOff>125414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>4316410</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>565479</xdr:colOff>
       <xdr:row>567</xdr:row>
       <xdr:rowOff>37649</xdr:rowOff>
     </xdr:to>
@@ -20857,7 +21034,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>1049060</xdr:colOff>
       <xdr:row>653</xdr:row>
-      <xdr:rowOff>81891</xdr:rowOff>
+      <xdr:rowOff>81892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20898,10 +21075,10 @@
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>557306</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2329399</xdr:colOff>
       <xdr:row>657</xdr:row>
-      <xdr:rowOff>60721</xdr:rowOff>
+      <xdr:rowOff>60722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20945,7 +21122,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>4114799</xdr:colOff>
       <xdr:row>368</xdr:row>
-      <xdr:rowOff>20256</xdr:rowOff>
+      <xdr:rowOff>20255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20989,7 +21166,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>613698</xdr:colOff>
       <xdr:row>575</xdr:row>
-      <xdr:rowOff>25027</xdr:rowOff>
+      <xdr:rowOff>25028</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21174,6 +21351,182 @@
         <a:xfrm>
           <a:off x="390559" y="23282033"/>
           <a:ext cx="3378200" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2755309</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>1642435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD609D0E-FE18-7041-9999-DB1EEFB1212A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33256279" y="50504651"/>
+          <a:ext cx="7658100" cy="6692900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67657EF8-5A73-943B-C0D8-8F3B5AAAE79F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33256279" y="50504651"/>
+          <a:ext cx="2552700" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>265814</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>118139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1278566</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>1547037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CF1F58-0949-DC4F-89DD-7D5D4E9E0091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48378140" y="49913953"/>
+          <a:ext cx="7658100" cy="7188200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>884165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171F5EEB-0B43-854C-B3CD-0DE18CD0D501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31972250" y="119888000"/>
+          <a:ext cx="7035800" cy="5847749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21510,7 +21863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Y1:Y6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -22219,8 +22572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE609"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D355" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U53" sqref="U53"/>
+    <sheetView showGridLines="0" topLeftCell="M329" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U358" sqref="U358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22233,9 +22586,10 @@
     <col min="14" max="14" width="33.33203125" customWidth="1"/>
     <col min="17" max="17" width="28.83203125" customWidth="1"/>
     <col min="19" max="19" width="46" customWidth="1"/>
-    <col min="20" max="20" width="64.33203125" customWidth="1"/>
+    <col min="20" max="20" width="94.33203125" customWidth="1"/>
     <col min="21" max="22" width="81.5" customWidth="1"/>
     <col min="24" max="24" width="69.5" customWidth="1"/>
+    <col min="26" max="26" width="33.83203125" customWidth="1"/>
     <col min="27" max="27" width="56.83203125" customWidth="1"/>
     <col min="31" max="31" width="50.5" customWidth="1"/>
   </cols>
@@ -22686,7 +23040,7 @@
       <c r="I128" s="89"/>
       <c r="J128" s="89"/>
     </row>
-    <row r="129" spans="2:14" ht="19">
+    <row r="129" spans="2:24" ht="19">
       <c r="B129" s="90"/>
       <c r="C129" s="89"/>
       <c r="D129" s="89"/>
@@ -22697,7 +23051,7 @@
       <c r="I129" s="89"/>
       <c r="J129" s="89"/>
     </row>
-    <row r="130" spans="2:14" ht="19">
+    <row r="130" spans="2:24" ht="19">
       <c r="B130" s="90"/>
       <c r="C130" s="89"/>
       <c r="D130" s="89"/>
@@ -22708,7 +23062,7 @@
       <c r="I130" s="89"/>
       <c r="J130" s="89"/>
     </row>
-    <row r="131" spans="2:14" ht="19">
+    <row r="131" spans="2:24" ht="19">
       <c r="B131" s="90"/>
       <c r="C131" s="89"/>
       <c r="D131" s="89"/>
@@ -22719,7 +23073,7 @@
       <c r="I131" s="89"/>
       <c r="J131" s="89"/>
     </row>
-    <row r="132" spans="2:14" ht="19">
+    <row r="132" spans="2:24" ht="19">
       <c r="B132" s="90"/>
       <c r="C132" s="89"/>
       <c r="D132" s="89"/>
@@ -22730,7 +23084,7 @@
       <c r="I132" s="89"/>
       <c r="J132" s="89"/>
     </row>
-    <row r="133" spans="2:14" ht="19">
+    <row r="133" spans="2:24" ht="19">
       <c r="B133" s="90"/>
       <c r="C133" s="89"/>
       <c r="D133" s="89"/>
@@ -22741,7 +23095,7 @@
       <c r="I133" s="89"/>
       <c r="J133" s="89"/>
     </row>
-    <row r="134" spans="2:14" ht="19">
+    <row r="134" spans="2:24" ht="19">
       <c r="B134" s="90"/>
       <c r="C134" s="89"/>
       <c r="D134" s="89"/>
@@ -22752,7 +23106,7 @@
       <c r="I134" s="89"/>
       <c r="J134" s="89"/>
     </row>
-    <row r="135" spans="2:14" ht="19">
+    <row r="135" spans="2:24" ht="19">
       <c r="B135" s="90"/>
       <c r="C135" s="89"/>
       <c r="D135" s="89"/>
@@ -22763,7 +23117,7 @@
       <c r="I135" s="89"/>
       <c r="J135" s="89"/>
     </row>
-    <row r="136" spans="2:14" ht="19">
+    <row r="136" spans="2:24" ht="19">
       <c r="B136" s="90"/>
       <c r="C136" s="89"/>
       <c r="D136" s="89"/>
@@ -22774,7 +23128,7 @@
       <c r="I136" s="89"/>
       <c r="J136" s="89"/>
     </row>
-    <row r="137" spans="2:14" ht="19">
+    <row r="137" spans="2:24" ht="19">
       <c r="B137" s="90"/>
       <c r="C137" s="89"/>
       <c r="D137" s="89"/>
@@ -22785,7 +23139,7 @@
       <c r="I137" s="89"/>
       <c r="J137" s="89"/>
     </row>
-    <row r="138" spans="2:14" ht="19">
+    <row r="138" spans="2:24" ht="19">
       <c r="B138" s="90"/>
       <c r="C138" s="89"/>
       <c r="D138" s="89"/>
@@ -22796,7 +23150,7 @@
       <c r="I138" s="89"/>
       <c r="J138" s="89"/>
     </row>
-    <row r="139" spans="2:14" ht="19">
+    <row r="139" spans="2:24" ht="19">
       <c r="B139" s="90"/>
       <c r="C139" s="89"/>
       <c r="D139" s="89"/>
@@ -22807,7 +23161,7 @@
       <c r="I139" s="89"/>
       <c r="J139" s="89"/>
     </row>
-    <row r="140" spans="2:14" ht="26" customHeight="1">
+    <row r="140" spans="2:24" ht="26" customHeight="1">
       <c r="B140" s="89"/>
       <c r="C140" s="89"/>
       <c r="D140" s="89"/>
@@ -22818,7 +23172,7 @@
       <c r="I140" s="89"/>
       <c r="J140" s="89"/>
     </row>
-    <row r="141" spans="2:14" ht="44" customHeight="1">
+    <row r="141" spans="2:24" ht="44" customHeight="1">
       <c r="B141" s="96" t="s">
         <v>182</v>
       </c>
@@ -22833,7 +23187,7 @@
       <c r="K141" s="95"/>
       <c r="L141" s="87"/>
     </row>
-    <row r="142" spans="2:14" ht="38" customHeight="1">
+    <row r="142" spans="2:24" ht="38" customHeight="1">
       <c r="B142" s="96" t="s">
         <v>171</v>
       </c>
@@ -22848,7 +23202,7 @@
       <c r="K142" s="95"/>
       <c r="L142" s="87"/>
     </row>
-    <row r="143" spans="2:14" ht="20" customHeight="1">
+    <row r="143" spans="2:24" ht="20" customHeight="1">
       <c r="B143" s="95"/>
       <c r="C143" s="95"/>
       <c r="D143" s="95"/>
@@ -22861,7 +23215,7 @@
       <c r="K143" s="95"/>
       <c r="L143" s="87"/>
     </row>
-    <row r="144" spans="2:14" ht="33">
+    <row r="144" spans="2:24" ht="33">
       <c r="B144" s="161"/>
       <c r="C144" s="161"/>
       <c r="D144" s="161"/>
@@ -22875,33 +23229,50 @@
       <c r="L144" s="161"/>
       <c r="M144" s="161"/>
       <c r="N144" s="161"/>
-    </row>
-    <row r="145" spans="2:20" ht="21">
+      <c r="U144" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="X144" s="75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="2:27" ht="21">
       <c r="B145" s="75" t="s">
         <v>172</v>
       </c>
       <c r="N145" s="75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="148" spans="2:20">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="2:27">
+      <c r="N147" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" spans="2:27">
       <c r="L148" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="150" spans="2:20" ht="141" thickBot="1">
+    <row r="150" spans="2:27" ht="177" thickBot="1">
       <c r="L150" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="T150" s="100" t="s">
+      <c r="S150" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="V150" s="100" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="153" spans="2:20" ht="120">
+      <c r="AA150" s="76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="2:27" ht="120">
       <c r="L153" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="T153" s="99" t="s">
+      <c r="V153" s="99" t="s">
         <v>179</v>
       </c>
     </row>
@@ -23184,25 +23555,31 @@
         <v>143</v>
       </c>
     </row>
-    <row r="350" spans="2:14" ht="21">
+    <row r="350" spans="2:20" ht="21">
       <c r="B350" s="75" t="s">
         <v>208</v>
       </c>
       <c r="N350" s="75" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="357" spans="12:20" ht="36">
-      <c r="T357" s="78" t="s">
+      <c r="T350" s="75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="357" spans="12:21" ht="36">
+      <c r="S357" s="78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="358" spans="12:20" ht="64">
+    <row r="358" spans="12:21" ht="64">
       <c r="L358" s="36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="361" spans="12:20" ht="54">
+      <c r="U358" s="79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="361" spans="12:21" ht="54">
       <c r="L361" s="79" t="s">
         <v>144</v>
       </c>
@@ -23361,10 +23738,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DB2EE6-1596-454C-AA6F-D771DD6D954F}">
-  <dimension ref="A1:AA625"/>
+  <dimension ref="A1:AB625"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q593" sqref="Q593"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U167" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB176" sqref="AB176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -23380,9 +23757,11 @@
     <col min="17" max="17" width="45.83203125" customWidth="1"/>
     <col min="19" max="19" width="46" customWidth="1"/>
     <col min="20" max="20" width="64.33203125" customWidth="1"/>
-    <col min="21" max="22" width="81.5" customWidth="1"/>
+    <col min="21" max="21" width="62.5" customWidth="1"/>
+    <col min="22" max="22" width="59.33203125" customWidth="1"/>
     <col min="24" max="24" width="69.5" customWidth="1"/>
     <col min="27" max="27" width="56.83203125" customWidth="1"/>
+    <col min="28" max="28" width="51" customWidth="1"/>
     <col min="31" max="31" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23989,7 +24368,7 @@
       <c r="I160" s="89"/>
       <c r="J160" s="123"/>
     </row>
-    <row r="161" spans="2:17" ht="19">
+    <row r="161" spans="2:28" ht="19">
       <c r="B161" s="90"/>
       <c r="C161" s="89"/>
       <c r="D161" s="89"/>
@@ -24000,19 +24379,19 @@
       <c r="I161" s="89"/>
       <c r="J161" s="123"/>
     </row>
-    <row r="163" spans="2:17" s="118" customFormat="1">
+    <row r="163" spans="2:28" s="118" customFormat="1">
       <c r="J163" s="121"/>
       <c r="K163" s="121"/>
     </row>
-    <row r="164" spans="2:17" s="118" customFormat="1">
+    <row r="164" spans="2:28" s="118" customFormat="1">
       <c r="J164" s="121"/>
       <c r="K164" s="121"/>
     </row>
-    <row r="165" spans="2:17" s="118" customFormat="1">
+    <row r="165" spans="2:28" s="118" customFormat="1">
       <c r="J165" s="121"/>
       <c r="K165" s="121"/>
     </row>
-    <row r="167" spans="2:17" ht="44" customHeight="1">
+    <row r="167" spans="2:28" ht="44" customHeight="1">
       <c r="B167" s="96" t="s">
         <v>182</v>
       </c>
@@ -24027,7 +24406,7 @@
       <c r="K167" s="120"/>
       <c r="L167" s="87"/>
     </row>
-    <row r="168" spans="2:17" ht="38" customHeight="1">
+    <row r="168" spans="2:28" ht="38" customHeight="1">
       <c r="B168" s="96" t="s">
         <v>171</v>
       </c>
@@ -24042,7 +24421,7 @@
       <c r="K168" s="120"/>
       <c r="L168" s="87"/>
     </row>
-    <row r="169" spans="2:17" ht="20" customHeight="1">
+    <row r="169" spans="2:28" ht="20" customHeight="1">
       <c r="B169" s="95"/>
       <c r="C169" s="95"/>
       <c r="D169" s="95"/>
@@ -24054,8 +24433,11 @@
       <c r="J169" s="120"/>
       <c r="K169" s="120"/>
       <c r="L169" s="87"/>
-    </row>
-    <row r="170" spans="2:17" ht="33">
+      <c r="X169" s="75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="2:28" ht="33">
       <c r="B170" s="161"/>
       <c r="C170" s="161"/>
       <c r="D170" s="161"/>
@@ -24070,7 +24452,7 @@
       <c r="M170" s="161"/>
       <c r="N170" s="161"/>
     </row>
-    <row r="171" spans="2:17" ht="21">
+    <row r="171" spans="2:28" ht="21">
       <c r="B171" s="75" t="s">
         <v>172</v>
       </c>
@@ -24078,23 +24460,32 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:17" ht="141" thickBot="1">
+    <row r="176" spans="2:28" ht="209" thickBot="1">
       <c r="L176" s="97" t="s">
         <v>38</v>
       </c>
       <c r="Q176" s="100" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="2:17" ht="160">
+      <c r="V176" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB176" s="165" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="179" spans="2:22" ht="160">
       <c r="L179" s="130" t="s">
         <v>138</v>
       </c>
       <c r="Q179" s="134" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="2:17" ht="153" customHeight="1">
+      <c r="V179" s="164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="2:22" ht="153" customHeight="1">
       <c r="L180" s="116" t="s">
         <v>241</v>
       </c>
@@ -24102,20 +24493,20 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="2:17" ht="17" customHeight="1"/>
-    <row r="186" spans="2:17" s="118" customFormat="1">
+    <row r="185" spans="2:22" ht="17" customHeight="1"/>
+    <row r="186" spans="2:22" s="118" customFormat="1">
       <c r="J186" s="121"/>
       <c r="K186" s="121"/>
     </row>
-    <row r="187" spans="2:17" s="118" customFormat="1">
+    <row r="187" spans="2:22" s="118" customFormat="1">
       <c r="J187" s="121"/>
       <c r="K187" s="121"/>
     </row>
-    <row r="188" spans="2:17" s="118" customFormat="1">
+    <row r="188" spans="2:22" s="118" customFormat="1">
       <c r="J188" s="121"/>
       <c r="K188" s="121"/>
     </row>
-    <row r="190" spans="2:17" ht="26">
+    <row r="190" spans="2:22" ht="26">
       <c r="B190" s="95" t="s">
         <v>181</v>
       </c>
@@ -24454,7 +24845,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="383" spans="2:14" ht="21">
+    <row r="383" spans="2:20" ht="21">
       <c r="B383" s="75" t="s">
         <v>208</v>
       </c>
@@ -24462,23 +24853,34 @@
         <v>209</v>
       </c>
     </row>
-    <row r="391" spans="12:17" ht="64">
+    <row r="384" spans="2:20" ht="21">
+      <c r="T384" s="75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="391" spans="12:22" ht="72">
       <c r="L391" s="139" t="s">
         <v>77</v>
       </c>
       <c r="Q391" s="112" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="392" spans="12:17" ht="220">
+      <c r="V391" s="117" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="392" spans="12:22" ht="272" customHeight="1">
       <c r="L392" s="112" t="s">
         <v>144</v>
       </c>
       <c r="Q392" s="114" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="393" spans="12:17" ht="110">
+      <c r="V392" s="163" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="393" spans="12:22" ht="110">
       <c r="L393" s="114" t="s">
         <v>248</v>
       </c>
